--- a/regionseng/11/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
+++ b/regionseng/11/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -88,13 +88,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  2022 *</t>
+    <t xml:space="preserve">  2024 *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
   </numFmts>
@@ -645,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F1"/>
@@ -697,7 +697,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:19" ht="12" customHeight="1">
+    <row r="5" spans="1:19">
       <c r="A5" s="15">
         <v>2009</v>
       </c>
@@ -721,7 +721,7 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:19" ht="12" customHeight="1">
+    <row r="6" spans="1:19">
       <c r="A6" s="15">
         <v>2010</v>
       </c>
@@ -741,7 +741,7 @@
         <v>9650.4038922000036</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="12" customHeight="1">
+    <row r="7" spans="1:19">
       <c r="A7" s="15">
         <v>2011</v>
       </c>
@@ -761,7 +761,7 @@
         <v>14186.981836600002</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="12" customHeight="1">
+    <row r="8" spans="1:19">
       <c r="A8" s="15">
         <v>2012</v>
       </c>
@@ -781,7 +781,7 @@
         <v>12490.286654000007</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="12" customHeight="1">
+    <row r="9" spans="1:19">
       <c r="A9" s="15">
         <v>2013</v>
       </c>
@@ -801,7 +801,7 @@
         <v>-115.41210000000008</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="12" customHeight="1">
+    <row r="10" spans="1:19">
       <c r="A10" s="15">
         <v>2014</v>
       </c>
@@ -821,7 +821,7 @@
         <v>57576.170300000013</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="12" customHeight="1">
+    <row r="11" spans="1:19">
       <c r="A11" s="15">
         <v>2015</v>
       </c>
@@ -841,64 +841,64 @@
         <v>-8455.676999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="12" customHeight="1">
+    <row r="12" spans="1:19">
       <c r="A12" s="15">
         <v>2016</v>
       </c>
       <c r="B12" s="23">
-        <v>-1220.4270000000006</v>
+        <v>-1220.4270000000004</v>
       </c>
       <c r="C12" s="23">
-        <v>125.99970000000012</v>
+        <v>125.99969999999982</v>
       </c>
       <c r="D12" s="23">
-        <v>225.61469999999957</v>
+        <v>1314.6177000000002</v>
       </c>
       <c r="E12" s="23">
-        <v>-511.29149999999964</v>
+        <v>-1600.2943</v>
       </c>
       <c r="F12" s="24">
-        <v>-1380.1041000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="12" customHeight="1">
+        <v>-1380.1039000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="15">
         <v>2017</v>
       </c>
       <c r="B13" s="16">
-        <v>4045.460599999999</v>
+        <v>4045.4606000000008</v>
       </c>
       <c r="C13" s="16">
-        <v>238.44359999999998</v>
+        <v>239.6977</v>
       </c>
       <c r="D13" s="16">
-        <v>2650.6555000000012</v>
+        <v>2660.4334000000003</v>
       </c>
       <c r="E13" s="16">
-        <v>-1072.2612999999999</v>
+        <v>-1083.2931999999998</v>
       </c>
       <c r="F13" s="17">
-        <v>5862.2983999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="12" customHeight="1">
+        <v>5862.2985000000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="15">
         <v>2018</v>
       </c>
       <c r="B14" s="16">
-        <v>6579.3835000000008</v>
+        <v>6579.3836000000001</v>
       </c>
       <c r="C14" s="16">
-        <v>-1041.2839000000001</v>
+        <v>-1041.2841000000003</v>
       </c>
       <c r="D14" s="16">
-        <v>2675.6416999999988</v>
+        <v>2675.6419000000005</v>
       </c>
       <c r="E14" s="16">
-        <v>26197.987299999997</v>
+        <v>26197.987400000002</v>
       </c>
       <c r="F14" s="17">
-        <v>34411.728599999995</v>
+        <v>34411.728800000004</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -906,19 +906,19 @@
         <v>2019</v>
       </c>
       <c r="B15" s="16">
-        <v>705.70800000000031</v>
+        <v>1073.7370000000008</v>
       </c>
       <c r="C15" s="16">
-        <v>6538.8002000000006</v>
+        <v>6538.8001999999988</v>
       </c>
       <c r="D15" s="16">
-        <v>2963.6444000000006</v>
+        <v>2963.6444000000001</v>
       </c>
       <c r="E15" s="16">
-        <v>2950.9808999999991</v>
+        <v>2950.980599999999</v>
       </c>
       <c r="F15" s="17">
-        <v>13159.1335</v>
+        <v>13527.162199999999</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -926,19 +926,19 @@
         <v>2020</v>
       </c>
       <c r="B16" s="16">
-        <v>-2046.1703000000009</v>
+        <v>-2016.4168999999997</v>
       </c>
       <c r="C16" s="16">
-        <v>20159.421599999998</v>
+        <v>20159.421499999993</v>
       </c>
       <c r="D16" s="16">
-        <v>9309.6583999999966</v>
+        <v>8793.7929000000004</v>
       </c>
       <c r="E16" s="16">
-        <v>-6157.3710999999985</v>
+        <v>-6157.4395999999997</v>
       </c>
       <c r="F16" s="17">
-        <v>21265.538599999993</v>
+        <v>20779.357899999995</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -946,19 +946,19 @@
         <v>2021</v>
       </c>
       <c r="B17" s="16">
-        <v>2591.0389999999993</v>
+        <v>3073.3246999999997</v>
       </c>
       <c r="C17" s="16">
-        <v>19629.549400000007</v>
+        <v>19699.328799999996</v>
       </c>
       <c r="D17" s="16">
-        <v>9483.8551000000007</v>
+        <v>9320.0478000000021</v>
       </c>
       <c r="E17" s="16">
-        <v>-5632.9456999999857</v>
+        <v>-6036.0212999999967</v>
       </c>
       <c r="F17" s="17">
-        <v>26071.497800000023</v>
+        <v>26056.680000000004</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -972,19 +972,23 @@
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="15" t="s">
-        <v>14</v>
+      <c r="A18" s="15">
+        <v>2022</v>
       </c>
       <c r="B18" s="16">
-        <v>3120.5035999999986</v>
+        <v>4181.2918999999993</v>
       </c>
       <c r="C18" s="16">
-        <v>5866.5362000000014</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+        <v>10544.780700000001</v>
+      </c>
+      <c r="D18" s="16">
+        <v>2002.2481000000009</v>
+      </c>
+      <c r="E18" s="16">
+        <v>-4060.2838000000006</v>
+      </c>
       <c r="F18" s="17">
-        <v>8987.0398000000005</v>
+        <v>12668.036899999999</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -998,14 +1002,24 @@
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="A19" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="16">
+        <v>11017.983500000004</v>
+      </c>
+      <c r="C19" s="16">
+        <v>9245.9672000000028</v>
+      </c>
+      <c r="D19" s="16">
+        <v>5150.5449999999983</v>
+      </c>
+      <c r="E19" s="16">
+        <v>-3535.423400000001</v>
+      </c>
+      <c r="F19" s="17">
+        <v>21879.072300000007</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -1018,66 +1032,70 @@
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="5"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
+      <c r="A20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="16">
+        <v>3199.8664999999996</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17">
+        <v>3199.8664999999996</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="5"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="13" t="s">
-        <v>7</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1097,7 +1115,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1117,7 +1135,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1136,7 +1154,9 @@
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="5"/>
+      <c r="A26" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1153,31 +1173,69 @@
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" ht="55.9" customHeight="1">
-      <c r="A27" s="27" t="s">
+    <row r="27" spans="1:16">
+      <c r="A27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" ht="55.9" customHeight="1">
+      <c r="A29" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/regionseng/11/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
+++ b/regionseng/11/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
@@ -648,7 +648,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -1038,11 +1038,13 @@
       <c r="B20" s="16">
         <v>3199.8664999999996</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="16">
+        <v>15989.0748</v>
+      </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="17">
-        <v>3199.8664999999996</v>
+        <v>19188.941299999999</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
